--- a/public/template/mlgl0007.xlsx
+++ b/public/template/mlgl0007.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDF6C4C-299C-4595-94C5-E1AAD6B901F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DDE1D6-4827-43B1-BCCD-66C9D89E8B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1875" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,38 +25,6 @@
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分制管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>有积分管理权限的管理者，每月完成</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张以上奖扣单的开具</t>
-    </r>
-  </si>
-  <si>
-    <t>积分录入，每1张</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -84,24 +52,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>积极组织或完成部门积分制管理、会议有记录，并上交者</t>
-  </si>
-  <si>
-    <t>每新增一项点对点奖（扣）项，并有考核细则</t>
-  </si>
-  <si>
-    <t>如发现管理人员乱扣分、错扣分，每次扣经办人员</t>
-  </si>
-  <si>
-    <t>录入数据不及时</t>
-  </si>
-  <si>
-    <t>录入数据不准确或有弄虚作假行为者</t>
-  </si>
-  <si>
-    <t>录入后数据未上传，造成数据丢失的</t>
-  </si>
-  <si>
     <t>考勤</t>
   </si>
   <si>
@@ -117,30 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>当日出勤有早退；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>迟到、早退1-10分钟</t>
-  </si>
-  <si>
-    <t>迟到、早退11-20分钟</t>
-  </si>
-  <si>
-    <t>迟到、早退21-30分钟（31分钟以上为旷工）</t>
-  </si>
-  <si>
-    <t>省内出差的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>省外出差的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>旷工1天者（以此类推）</t>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,6 +76,39 @@
   </si>
   <si>
     <t>GL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷粒管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷粒录入，每1张</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有谷粒管理权限的管理者，每月完成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张以上奖扣单的开具</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,14 +169,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,7 +208,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -608,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -622,20 +572,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>25</v>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -643,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>10</v>
@@ -660,10 +610,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
@@ -677,10 +627,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -691,279 +641,58 @@
     </row>
     <row r="5" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8">
-        <v>-10</v>
-      </c>
-      <c r="E5" s="8">
-        <v>-10</v>
+      <c r="E5" s="7">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8">
-        <v>-10</v>
-      </c>
-      <c r="E6" s="8">
-        <v>-10</v>
+      <c r="D6" s="7">
+        <v>-2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8">
-        <v>-2</v>
-      </c>
-      <c r="E7" s="8">
-        <v>-2</v>
+      <c r="D7" s="7">
+        <v>-5</v>
+      </c>
+      <c r="E7" s="7">
+        <v>-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="8">
-        <v>15</v>
-      </c>
-      <c r="E9" s="8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="8">
-        <v>40</v>
-      </c>
-      <c r="E10" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="8">
-        <v>2</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="8">
-        <v>-2</v>
-      </c>
-      <c r="E12" s="8">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="8">
-        <v>-5</v>
-      </c>
-      <c r="E13" s="8">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8">
-        <v>-10</v>
-      </c>
-      <c r="E14" s="8">
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="8">
-        <v>10</v>
-      </c>
-      <c r="E15" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="8">
-        <v>10</v>
-      </c>
-      <c r="E17" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="8">
-        <v>5</v>
-      </c>
-      <c r="E18" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="8">
-        <v>40</v>
-      </c>
-      <c r="E19" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="8">
-        <v>-100</v>
-      </c>
-      <c r="E20" s="8">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
